--- a/biology/Botanique/Étage_montagnard/Étage_montagnard.xlsx
+++ b/biology/Botanique/Étage_montagnard/Étage_montagnard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tage_montagnard</t>
+          <t>Étage_montagnard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dans les massifs montagneux des régions tempérées, l'étage montagnard est le deuxième étage de végétation qui se rencontre lors de la montée en altitude. Il est généralement compris entre ~500 m et ~1500 m d'altitude[1]. Il est situé au-dessus de l'étage collinéen et au-dessous de l'étage subalpin.
+Dans les massifs montagneux des régions tempérées, l'étage montagnard est le deuxième étage de végétation qui se rencontre lors de la montée en altitude. Il est généralement compris entre ~500 m et ~1500 m d'altitude. Il est situé au-dessus de l'étage collinéen et au-dessous de l'étage subalpin.
 L'étage submontagnard concerne la végétation plutôt inféodée à l'étage montagnard mais dont l'aire s'étend aussi à l'étage collinéen.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tage_montagnard</t>
+          <t>Étage_montagnard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est composé d'une forêt mixte de feuillus et de conifères. Des pinèdes sylvestres mésophiles y sont également fréquentes. Le hêtre et le sapin sont les essences typiques de l'étage montagnard.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tage_montagnard</t>
+          <t>Étage_montagnard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerf, chevreuil, sanglier, coq de bruyère ou Grand Tétras, pic noir, renard, grive, etc.
 			Représentation schématique des différents étages de végétation dans les Alpes.
